--- a/Plan_Contas_AP_ADIANTAMENTO_LINE_20220331_GOLIVE.xlsx
+++ b/Plan_Contas_AP_ADIANTAMENTO_LINE_20220331_GOLIVE.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA114"/>
+  <dimension ref="A1:FA110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>172253.24</t>
+          <t>75070.11</t>
         </is>
       </c>
       <c r="E1" t="inlineStr"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>24.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>755.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>41.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1326.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>145200.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>338800.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13112.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8991.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3206.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3206.86</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3206.86</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10177.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7058.11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4200.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7485.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>400.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21183.76</t>
+          <t>3000.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15692.10</t>
+          <t>2500.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2885.12</t>
+          <t>10591.88</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1521.72</t>
+          <t>46432.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1109.86</t>
+          <t>1442.56</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1429.44</t>
+          <t>760.86</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1312.00</t>
+          <t>554.93</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>256.00</t>
+          <t>714.72</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>656.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>128.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>118.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>531772.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>14907.56</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>21.20</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3879.61</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>99731.03</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>280.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>280.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6983.23</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>16535.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2775.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>439.20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>478.50</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>376.73</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>440.71</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>264.36</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7222.30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10482,7 +10482,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1800.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7512.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2304.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>720.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1752.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13128.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>864.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1440.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3192.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>34250.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>17750.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2500.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13352,7 +13352,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1857.39</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13557,7 +13557,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>245.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1500.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2360.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>250.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7417.02</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1800.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15402,7 +15402,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2240.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>62482.98</t>
+          <t>582041.25</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>296340.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>197560.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16427,7 +16427,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>246950.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16632,7 +16632,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>123475.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>18101.39</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>123475.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -17247,7 +17247,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48999.87</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>49059.96</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48755.89</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48865.42</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1185360.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -18272,7 +18272,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48627.30</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>49191.40</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>354127.78</t>
+          <t>50202.75</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18887,7 +18887,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>49720.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -19092,7 +19092,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48865.53</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>690.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -19502,7 +19502,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>360.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>375.64</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -20117,7 +20117,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2003.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -20322,7 +20322,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5253.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1198.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20732,7 +20732,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20937,7 +20937,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2000.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1400.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -21347,7 +21347,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1400.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -21552,7 +21552,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1300.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21757,7 +21757,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>700.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -22167,7 +22167,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5535.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -22372,7 +22372,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1300.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>189.13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22782,7 +22782,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22971,826 +22971,6 @@
       <c r="EZ110" t="inlineStr"/>
       <c r="FA110" t="inlineStr"/>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>111</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>1001.000.000.11470001.0000.0000.0.0</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>2022/04/30</t>
-        </is>
-      </c>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>LOC_MATRIZ</t>
-        </is>
-      </c>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr"/>
-      <c r="AH111" t="inlineStr"/>
-      <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="inlineStr"/>
-      <c r="AK111" t="inlineStr"/>
-      <c r="AL111" t="inlineStr"/>
-      <c r="AM111" t="inlineStr"/>
-      <c r="AN111" t="inlineStr"/>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
-      <c r="AT111" t="inlineStr"/>
-      <c r="AU111" t="inlineStr"/>
-      <c r="AV111" t="inlineStr"/>
-      <c r="AW111" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AX111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY111" t="inlineStr"/>
-      <c r="AZ111" t="inlineStr"/>
-      <c r="BA111" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BB111" t="inlineStr"/>
-      <c r="BC111" t="inlineStr"/>
-      <c r="BD111" t="inlineStr"/>
-      <c r="BE111" t="inlineStr"/>
-      <c r="BF111" t="inlineStr"/>
-      <c r="BG111" t="inlineStr"/>
-      <c r="BH111" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BI111" t="inlineStr"/>
-      <c r="BJ111" t="inlineStr"/>
-      <c r="BK111" t="inlineStr"/>
-      <c r="BL111" t="inlineStr"/>
-      <c r="BM111" t="inlineStr"/>
-      <c r="BN111" t="inlineStr"/>
-      <c r="BO111" t="inlineStr"/>
-      <c r="BP111" t="inlineStr"/>
-      <c r="BQ111" t="inlineStr"/>
-      <c r="BR111" t="inlineStr"/>
-      <c r="BS111" t="inlineStr"/>
-      <c r="BT111" t="inlineStr"/>
-      <c r="BU111" t="inlineStr"/>
-      <c r="BV111" t="inlineStr"/>
-      <c r="BW111" t="inlineStr"/>
-      <c r="BX111" t="inlineStr"/>
-      <c r="BY111" t="inlineStr"/>
-      <c r="BZ111" t="inlineStr"/>
-      <c r="CA111" t="inlineStr"/>
-      <c r="CB111" t="inlineStr"/>
-      <c r="CC111" t="inlineStr"/>
-      <c r="CD111" t="inlineStr"/>
-      <c r="CE111" t="inlineStr"/>
-      <c r="CF111" t="inlineStr"/>
-      <c r="CG111" t="inlineStr"/>
-      <c r="CH111" t="inlineStr"/>
-      <c r="CI111" t="inlineStr"/>
-      <c r="CJ111" t="inlineStr"/>
-      <c r="CK111" t="inlineStr"/>
-      <c r="CL111" t="inlineStr"/>
-      <c r="CM111" t="inlineStr"/>
-      <c r="CN111" t="inlineStr"/>
-      <c r="CO111" t="inlineStr"/>
-      <c r="CP111" t="inlineStr"/>
-      <c r="CQ111" t="inlineStr"/>
-      <c r="CR111" t="inlineStr"/>
-      <c r="CS111" t="inlineStr"/>
-      <c r="CT111" t="inlineStr"/>
-      <c r="CU111" t="inlineStr"/>
-      <c r="CV111" t="inlineStr"/>
-      <c r="CW111" t="inlineStr"/>
-      <c r="CX111" t="inlineStr"/>
-      <c r="CY111" t="inlineStr"/>
-      <c r="CZ111" t="inlineStr"/>
-      <c r="DA111" t="inlineStr"/>
-      <c r="DB111" t="inlineStr"/>
-      <c r="DC111" t="inlineStr"/>
-      <c r="DD111" t="inlineStr"/>
-      <c r="DE111" t="inlineStr"/>
-      <c r="DF111" t="inlineStr"/>
-      <c r="DG111" t="inlineStr"/>
-      <c r="DH111" t="inlineStr"/>
-      <c r="DI111" t="inlineStr"/>
-      <c r="DJ111" t="inlineStr"/>
-      <c r="DK111" t="inlineStr"/>
-      <c r="DL111" t="inlineStr"/>
-      <c r="DM111" t="inlineStr"/>
-      <c r="DN111" t="inlineStr"/>
-      <c r="DO111" t="inlineStr"/>
-      <c r="DP111" t="inlineStr"/>
-      <c r="DQ111" t="inlineStr"/>
-      <c r="DR111" t="inlineStr"/>
-      <c r="DS111" t="inlineStr"/>
-      <c r="DT111" t="inlineStr"/>
-      <c r="DU111" t="inlineStr"/>
-      <c r="DV111" t="inlineStr"/>
-      <c r="DW111" t="inlineStr"/>
-      <c r="DX111" t="inlineStr"/>
-      <c r="DY111" t="inlineStr"/>
-      <c r="DZ111" t="inlineStr"/>
-      <c r="EA111" t="inlineStr"/>
-      <c r="EB111" t="inlineStr"/>
-      <c r="EC111" t="inlineStr"/>
-      <c r="ED111" t="inlineStr"/>
-      <c r="EE111" t="inlineStr"/>
-      <c r="EF111" t="inlineStr"/>
-      <c r="EG111" t="inlineStr"/>
-      <c r="EH111" t="inlineStr"/>
-      <c r="EI111" t="inlineStr"/>
-      <c r="EJ111" t="inlineStr"/>
-      <c r="EK111" t="inlineStr"/>
-      <c r="EL111" t="inlineStr"/>
-      <c r="EM111" t="inlineStr"/>
-      <c r="EN111" t="inlineStr"/>
-      <c r="EO111" t="inlineStr"/>
-      <c r="EP111" t="inlineStr"/>
-      <c r="EQ111" t="inlineStr"/>
-      <c r="ER111" t="inlineStr"/>
-      <c r="ES111" t="inlineStr"/>
-      <c r="ET111" t="inlineStr"/>
-      <c r="EU111" t="inlineStr"/>
-      <c r="EV111" t="inlineStr"/>
-      <c r="EW111" t="inlineStr"/>
-      <c r="EX111" t="inlineStr"/>
-      <c r="EY111" t="inlineStr"/>
-      <c r="EZ111" t="inlineStr"/>
-      <c r="FA111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>112</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>1001.000.000.11470001.0000.0000.0.0</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>2022/04/30</t>
-        </is>
-      </c>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr">
-        <is>
-          <t>LOC_MATRIZ</t>
-        </is>
-      </c>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
-      <c r="AK112" t="inlineStr"/>
-      <c r="AL112" t="inlineStr"/>
-      <c r="AM112" t="inlineStr"/>
-      <c r="AN112" t="inlineStr"/>
-      <c r="AO112" t="inlineStr"/>
-      <c r="AP112" t="inlineStr"/>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
-      <c r="AT112" t="inlineStr"/>
-      <c r="AU112" t="inlineStr"/>
-      <c r="AV112" t="inlineStr"/>
-      <c r="AW112" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AX112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY112" t="inlineStr"/>
-      <c r="AZ112" t="inlineStr"/>
-      <c r="BA112" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BB112" t="inlineStr"/>
-      <c r="BC112" t="inlineStr"/>
-      <c r="BD112" t="inlineStr"/>
-      <c r="BE112" t="inlineStr"/>
-      <c r="BF112" t="inlineStr"/>
-      <c r="BG112" t="inlineStr"/>
-      <c r="BH112" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BI112" t="inlineStr"/>
-      <c r="BJ112" t="inlineStr"/>
-      <c r="BK112" t="inlineStr"/>
-      <c r="BL112" t="inlineStr"/>
-      <c r="BM112" t="inlineStr"/>
-      <c r="BN112" t="inlineStr"/>
-      <c r="BO112" t="inlineStr"/>
-      <c r="BP112" t="inlineStr"/>
-      <c r="BQ112" t="inlineStr"/>
-      <c r="BR112" t="inlineStr"/>
-      <c r="BS112" t="inlineStr"/>
-      <c r="BT112" t="inlineStr"/>
-      <c r="BU112" t="inlineStr"/>
-      <c r="BV112" t="inlineStr"/>
-      <c r="BW112" t="inlineStr"/>
-      <c r="BX112" t="inlineStr"/>
-      <c r="BY112" t="inlineStr"/>
-      <c r="BZ112" t="inlineStr"/>
-      <c r="CA112" t="inlineStr"/>
-      <c r="CB112" t="inlineStr"/>
-      <c r="CC112" t="inlineStr"/>
-      <c r="CD112" t="inlineStr"/>
-      <c r="CE112" t="inlineStr"/>
-      <c r="CF112" t="inlineStr"/>
-      <c r="CG112" t="inlineStr"/>
-      <c r="CH112" t="inlineStr"/>
-      <c r="CI112" t="inlineStr"/>
-      <c r="CJ112" t="inlineStr"/>
-      <c r="CK112" t="inlineStr"/>
-      <c r="CL112" t="inlineStr"/>
-      <c r="CM112" t="inlineStr"/>
-      <c r="CN112" t="inlineStr"/>
-      <c r="CO112" t="inlineStr"/>
-      <c r="CP112" t="inlineStr"/>
-      <c r="CQ112" t="inlineStr"/>
-      <c r="CR112" t="inlineStr"/>
-      <c r="CS112" t="inlineStr"/>
-      <c r="CT112" t="inlineStr"/>
-      <c r="CU112" t="inlineStr"/>
-      <c r="CV112" t="inlineStr"/>
-      <c r="CW112" t="inlineStr"/>
-      <c r="CX112" t="inlineStr"/>
-      <c r="CY112" t="inlineStr"/>
-      <c r="CZ112" t="inlineStr"/>
-      <c r="DA112" t="inlineStr"/>
-      <c r="DB112" t="inlineStr"/>
-      <c r="DC112" t="inlineStr"/>
-      <c r="DD112" t="inlineStr"/>
-      <c r="DE112" t="inlineStr"/>
-      <c r="DF112" t="inlineStr"/>
-      <c r="DG112" t="inlineStr"/>
-      <c r="DH112" t="inlineStr"/>
-      <c r="DI112" t="inlineStr"/>
-      <c r="DJ112" t="inlineStr"/>
-      <c r="DK112" t="inlineStr"/>
-      <c r="DL112" t="inlineStr"/>
-      <c r="DM112" t="inlineStr"/>
-      <c r="DN112" t="inlineStr"/>
-      <c r="DO112" t="inlineStr"/>
-      <c r="DP112" t="inlineStr"/>
-      <c r="DQ112" t="inlineStr"/>
-      <c r="DR112" t="inlineStr"/>
-      <c r="DS112" t="inlineStr"/>
-      <c r="DT112" t="inlineStr"/>
-      <c r="DU112" t="inlineStr"/>
-      <c r="DV112" t="inlineStr"/>
-      <c r="DW112" t="inlineStr"/>
-      <c r="DX112" t="inlineStr"/>
-      <c r="DY112" t="inlineStr"/>
-      <c r="DZ112" t="inlineStr"/>
-      <c r="EA112" t="inlineStr"/>
-      <c r="EB112" t="inlineStr"/>
-      <c r="EC112" t="inlineStr"/>
-      <c r="ED112" t="inlineStr"/>
-      <c r="EE112" t="inlineStr"/>
-      <c r="EF112" t="inlineStr"/>
-      <c r="EG112" t="inlineStr"/>
-      <c r="EH112" t="inlineStr"/>
-      <c r="EI112" t="inlineStr"/>
-      <c r="EJ112" t="inlineStr"/>
-      <c r="EK112" t="inlineStr"/>
-      <c r="EL112" t="inlineStr"/>
-      <c r="EM112" t="inlineStr"/>
-      <c r="EN112" t="inlineStr"/>
-      <c r="EO112" t="inlineStr"/>
-      <c r="EP112" t="inlineStr"/>
-      <c r="EQ112" t="inlineStr"/>
-      <c r="ER112" t="inlineStr"/>
-      <c r="ES112" t="inlineStr"/>
-      <c r="ET112" t="inlineStr"/>
-      <c r="EU112" t="inlineStr"/>
-      <c r="EV112" t="inlineStr"/>
-      <c r="EW112" t="inlineStr"/>
-      <c r="EX112" t="inlineStr"/>
-      <c r="EY112" t="inlineStr"/>
-      <c r="EZ112" t="inlineStr"/>
-      <c r="FA112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>113</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>1001.000.000.11470001.0000.0000.0.0</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>2022/04/30</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>LOC_MATRIZ</t>
-        </is>
-      </c>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr"/>
-      <c r="AH113" t="inlineStr"/>
-      <c r="AI113" t="inlineStr"/>
-      <c r="AJ113" t="inlineStr"/>
-      <c r="AK113" t="inlineStr"/>
-      <c r="AL113" t="inlineStr"/>
-      <c r="AM113" t="inlineStr"/>
-      <c r="AN113" t="inlineStr"/>
-      <c r="AO113" t="inlineStr"/>
-      <c r="AP113" t="inlineStr"/>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
-      <c r="AS113" t="inlineStr"/>
-      <c r="AT113" t="inlineStr"/>
-      <c r="AU113" t="inlineStr"/>
-      <c r="AV113" t="inlineStr"/>
-      <c r="AW113" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AX113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY113" t="inlineStr"/>
-      <c r="AZ113" t="inlineStr"/>
-      <c r="BA113" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BB113" t="inlineStr"/>
-      <c r="BC113" t="inlineStr"/>
-      <c r="BD113" t="inlineStr"/>
-      <c r="BE113" t="inlineStr"/>
-      <c r="BF113" t="inlineStr"/>
-      <c r="BG113" t="inlineStr"/>
-      <c r="BH113" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BI113" t="inlineStr"/>
-      <c r="BJ113" t="inlineStr"/>
-      <c r="BK113" t="inlineStr"/>
-      <c r="BL113" t="inlineStr"/>
-      <c r="BM113" t="inlineStr"/>
-      <c r="BN113" t="inlineStr"/>
-      <c r="BO113" t="inlineStr"/>
-      <c r="BP113" t="inlineStr"/>
-      <c r="BQ113" t="inlineStr"/>
-      <c r="BR113" t="inlineStr"/>
-      <c r="BS113" t="inlineStr"/>
-      <c r="BT113" t="inlineStr"/>
-      <c r="BU113" t="inlineStr"/>
-      <c r="BV113" t="inlineStr"/>
-      <c r="BW113" t="inlineStr"/>
-      <c r="BX113" t="inlineStr"/>
-      <c r="BY113" t="inlineStr"/>
-      <c r="BZ113" t="inlineStr"/>
-      <c r="CA113" t="inlineStr"/>
-      <c r="CB113" t="inlineStr"/>
-      <c r="CC113" t="inlineStr"/>
-      <c r="CD113" t="inlineStr"/>
-      <c r="CE113" t="inlineStr"/>
-      <c r="CF113" t="inlineStr"/>
-      <c r="CG113" t="inlineStr"/>
-      <c r="CH113" t="inlineStr"/>
-      <c r="CI113" t="inlineStr"/>
-      <c r="CJ113" t="inlineStr"/>
-      <c r="CK113" t="inlineStr"/>
-      <c r="CL113" t="inlineStr"/>
-      <c r="CM113" t="inlineStr"/>
-      <c r="CN113" t="inlineStr"/>
-      <c r="CO113" t="inlineStr"/>
-      <c r="CP113" t="inlineStr"/>
-      <c r="CQ113" t="inlineStr"/>
-      <c r="CR113" t="inlineStr"/>
-      <c r="CS113" t="inlineStr"/>
-      <c r="CT113" t="inlineStr"/>
-      <c r="CU113" t="inlineStr"/>
-      <c r="CV113" t="inlineStr"/>
-      <c r="CW113" t="inlineStr"/>
-      <c r="CX113" t="inlineStr"/>
-      <c r="CY113" t="inlineStr"/>
-      <c r="CZ113" t="inlineStr"/>
-      <c r="DA113" t="inlineStr"/>
-      <c r="DB113" t="inlineStr"/>
-      <c r="DC113" t="inlineStr"/>
-      <c r="DD113" t="inlineStr"/>
-      <c r="DE113" t="inlineStr"/>
-      <c r="DF113" t="inlineStr"/>
-      <c r="DG113" t="inlineStr"/>
-      <c r="DH113" t="inlineStr"/>
-      <c r="DI113" t="inlineStr"/>
-      <c r="DJ113" t="inlineStr"/>
-      <c r="DK113" t="inlineStr"/>
-      <c r="DL113" t="inlineStr"/>
-      <c r="DM113" t="inlineStr"/>
-      <c r="DN113" t="inlineStr"/>
-      <c r="DO113" t="inlineStr"/>
-      <c r="DP113" t="inlineStr"/>
-      <c r="DQ113" t="inlineStr"/>
-      <c r="DR113" t="inlineStr"/>
-      <c r="DS113" t="inlineStr"/>
-      <c r="DT113" t="inlineStr"/>
-      <c r="DU113" t="inlineStr"/>
-      <c r="DV113" t="inlineStr"/>
-      <c r="DW113" t="inlineStr"/>
-      <c r="DX113" t="inlineStr"/>
-      <c r="DY113" t="inlineStr"/>
-      <c r="DZ113" t="inlineStr"/>
-      <c r="EA113" t="inlineStr"/>
-      <c r="EB113" t="inlineStr"/>
-      <c r="EC113" t="inlineStr"/>
-      <c r="ED113" t="inlineStr"/>
-      <c r="EE113" t="inlineStr"/>
-      <c r="EF113" t="inlineStr"/>
-      <c r="EG113" t="inlineStr"/>
-      <c r="EH113" t="inlineStr"/>
-      <c r="EI113" t="inlineStr"/>
-      <c r="EJ113" t="inlineStr"/>
-      <c r="EK113" t="inlineStr"/>
-      <c r="EL113" t="inlineStr"/>
-      <c r="EM113" t="inlineStr"/>
-      <c r="EN113" t="inlineStr"/>
-      <c r="EO113" t="inlineStr"/>
-      <c r="EP113" t="inlineStr"/>
-      <c r="EQ113" t="inlineStr"/>
-      <c r="ER113" t="inlineStr"/>
-      <c r="ES113" t="inlineStr"/>
-      <c r="ET113" t="inlineStr"/>
-      <c r="EU113" t="inlineStr"/>
-      <c r="EV113" t="inlineStr"/>
-      <c r="EW113" t="inlineStr"/>
-      <c r="EX113" t="inlineStr"/>
-      <c r="EY113" t="inlineStr"/>
-      <c r="EZ113" t="inlineStr"/>
-      <c r="FA113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>114</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>1001.000.000.11470001.0000.0000.0.0</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>2022/04/30</t>
-        </is>
-      </c>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr">
-        <is>
-          <t>LOC_MATRIZ</t>
-        </is>
-      </c>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
-      <c r="AF114" t="inlineStr"/>
-      <c r="AG114" t="inlineStr"/>
-      <c r="AH114" t="inlineStr"/>
-      <c r="AI114" t="inlineStr"/>
-      <c r="AJ114" t="inlineStr"/>
-      <c r="AK114" t="inlineStr"/>
-      <c r="AL114" t="inlineStr"/>
-      <c r="AM114" t="inlineStr"/>
-      <c r="AN114" t="inlineStr"/>
-      <c r="AO114" t="inlineStr"/>
-      <c r="AP114" t="inlineStr"/>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
-      <c r="AT114" t="inlineStr"/>
-      <c r="AU114" t="inlineStr"/>
-      <c r="AV114" t="inlineStr"/>
-      <c r="AW114" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AX114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY114" t="inlineStr"/>
-      <c r="AZ114" t="inlineStr"/>
-      <c r="BA114" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BB114" t="inlineStr"/>
-      <c r="BC114" t="inlineStr"/>
-      <c r="BD114" t="inlineStr"/>
-      <c r="BE114" t="inlineStr"/>
-      <c r="BF114" t="inlineStr"/>
-      <c r="BG114" t="inlineStr"/>
-      <c r="BH114" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BI114" t="inlineStr"/>
-      <c r="BJ114" t="inlineStr"/>
-      <c r="BK114" t="inlineStr"/>
-      <c r="BL114" t="inlineStr"/>
-      <c r="BM114" t="inlineStr"/>
-      <c r="BN114" t="inlineStr"/>
-      <c r="BO114" t="inlineStr"/>
-      <c r="BP114" t="inlineStr"/>
-      <c r="BQ114" t="inlineStr"/>
-      <c r="BR114" t="inlineStr"/>
-      <c r="BS114" t="inlineStr"/>
-      <c r="BT114" t="inlineStr"/>
-      <c r="BU114" t="inlineStr"/>
-      <c r="BV114" t="inlineStr"/>
-      <c r="BW114" t="inlineStr"/>
-      <c r="BX114" t="inlineStr"/>
-      <c r="BY114" t="inlineStr"/>
-      <c r="BZ114" t="inlineStr"/>
-      <c r="CA114" t="inlineStr"/>
-      <c r="CB114" t="inlineStr"/>
-      <c r="CC114" t="inlineStr"/>
-      <c r="CD114" t="inlineStr"/>
-      <c r="CE114" t="inlineStr"/>
-      <c r="CF114" t="inlineStr"/>
-      <c r="CG114" t="inlineStr"/>
-      <c r="CH114" t="inlineStr"/>
-      <c r="CI114" t="inlineStr"/>
-      <c r="CJ114" t="inlineStr"/>
-      <c r="CK114" t="inlineStr"/>
-      <c r="CL114" t="inlineStr"/>
-      <c r="CM114" t="inlineStr"/>
-      <c r="CN114" t="inlineStr"/>
-      <c r="CO114" t="inlineStr"/>
-      <c r="CP114" t="inlineStr"/>
-      <c r="CQ114" t="inlineStr"/>
-      <c r="CR114" t="inlineStr"/>
-      <c r="CS114" t="inlineStr"/>
-      <c r="CT114" t="inlineStr"/>
-      <c r="CU114" t="inlineStr"/>
-      <c r="CV114" t="inlineStr"/>
-      <c r="CW114" t="inlineStr"/>
-      <c r="CX114" t="inlineStr"/>
-      <c r="CY114" t="inlineStr"/>
-      <c r="CZ114" t="inlineStr"/>
-      <c r="DA114" t="inlineStr"/>
-      <c r="DB114" t="inlineStr"/>
-      <c r="DC114" t="inlineStr"/>
-      <c r="DD114" t="inlineStr"/>
-      <c r="DE114" t="inlineStr"/>
-      <c r="DF114" t="inlineStr"/>
-      <c r="DG114" t="inlineStr"/>
-      <c r="DH114" t="inlineStr"/>
-      <c r="DI114" t="inlineStr"/>
-      <c r="DJ114" t="inlineStr"/>
-      <c r="DK114" t="inlineStr"/>
-      <c r="DL114" t="inlineStr"/>
-      <c r="DM114" t="inlineStr"/>
-      <c r="DN114" t="inlineStr"/>
-      <c r="DO114" t="inlineStr"/>
-      <c r="DP114" t="inlineStr"/>
-      <c r="DQ114" t="inlineStr"/>
-      <c r="DR114" t="inlineStr"/>
-      <c r="DS114" t="inlineStr"/>
-      <c r="DT114" t="inlineStr"/>
-      <c r="DU114" t="inlineStr"/>
-      <c r="DV114" t="inlineStr"/>
-      <c r="DW114" t="inlineStr"/>
-      <c r="DX114" t="inlineStr"/>
-      <c r="DY114" t="inlineStr"/>
-      <c r="DZ114" t="inlineStr"/>
-      <c r="EA114" t="inlineStr"/>
-      <c r="EB114" t="inlineStr"/>
-      <c r="EC114" t="inlineStr"/>
-      <c r="ED114" t="inlineStr"/>
-      <c r="EE114" t="inlineStr"/>
-      <c r="EF114" t="inlineStr"/>
-      <c r="EG114" t="inlineStr"/>
-      <c r="EH114" t="inlineStr"/>
-      <c r="EI114" t="inlineStr"/>
-      <c r="EJ114" t="inlineStr"/>
-      <c r="EK114" t="inlineStr"/>
-      <c r="EL114" t="inlineStr"/>
-      <c r="EM114" t="inlineStr"/>
-      <c r="EN114" t="inlineStr"/>
-      <c r="EO114" t="inlineStr"/>
-      <c r="EP114" t="inlineStr"/>
-      <c r="EQ114" t="inlineStr"/>
-      <c r="ER114" t="inlineStr"/>
-      <c r="ES114" t="inlineStr"/>
-      <c r="ET114" t="inlineStr"/>
-      <c r="EU114" t="inlineStr"/>
-      <c r="EV114" t="inlineStr"/>
-      <c r="EW114" t="inlineStr"/>
-      <c r="EX114" t="inlineStr"/>
-      <c r="EY114" t="inlineStr"/>
-      <c r="EZ114" t="inlineStr"/>
-      <c r="FA114" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
